--- a/TechStack.xlsx
+++ b/TechStack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25570CB-61CC-4A6D-BEC0-0B348DF22E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E0BE42-8088-4B9F-9DAA-6B2E1DC2D029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{A3343148-9CEF-4E89-9E3D-9FEA2D4ED6A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{A3343148-9CEF-4E89-9E3D-9FEA2D4ED6A0}"/>
   </bookViews>
   <sheets>
     <sheet name="SpringBoot" sheetId="1" r:id="rId1"/>
@@ -34,8 +34,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>Spring Boot</t>
   </si>
@@ -263,6 +261,108 @@
   </si>
   <si>
     <t>Food Order(UDEMY)</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>React Basic</t>
+  </si>
+  <si>
+    <t>React Hooks</t>
+  </si>
+  <si>
+    <t>React Routing</t>
+  </si>
+  <si>
+    <t>React Form</t>
+  </si>
+  <si>
+    <t>React Optimization</t>
+  </si>
+  <si>
+    <t>React Http</t>
+  </si>
+  <si>
+    <t>Variable Declartion</t>
+  </si>
+  <si>
+    <t>If-  Else Block</t>
+  </si>
+  <si>
+    <t>Loops</t>
+  </si>
+  <si>
+    <t>CRUD on Object</t>
+  </si>
+  <si>
+    <t>JS Basic (JSX + TypeScript)</t>
+  </si>
+  <si>
+    <t>Loops on Object</t>
+  </si>
+  <si>
+    <t>Components and Props</t>
+  </si>
+  <si>
+    <t>Props Drilling</t>
+  </si>
+  <si>
+    <t>Condition Rendering</t>
+  </si>
+  <si>
+    <t>Passing list as props vs single elements</t>
+  </si>
+  <si>
+    <t>Build TODO List App</t>
+  </si>
+  <si>
+    <t>useState</t>
+  </si>
+  <si>
+    <t>useEffect</t>
+  </si>
+  <si>
+    <t>useRef</t>
+  </si>
+  <si>
+    <t>useSelector and useDispatch (REDUX)</t>
+  </si>
+  <si>
+    <t>useCallback</t>
+  </si>
+  <si>
+    <t>useMemo</t>
+  </si>
+  <si>
+    <t>Sync vs async</t>
+  </si>
+  <si>
+    <t>handling loading</t>
+  </si>
+  <si>
+    <t>HTTP errors handling</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>using useState</t>
+  </si>
+  <si>
+    <t>using useRef</t>
+  </si>
+  <si>
+    <t>using FormData</t>
+  </si>
+  <si>
+    <t>use of useState</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>navingation</t>
   </si>
 </sst>
 </file>
@@ -508,142 +608,194 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A67FA71-0197-4446-B753-1E9297D7F908}">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:O2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,117 +1129,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="15" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="15" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -1104,392 +1256,376 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="27">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="27">
         <v>3</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="29" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="15" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="15" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="15" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="15" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="15" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
+      <c r="A28" s="27">
         <v>4</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="36" t="s">
+      <c r="C28" s="22"/>
+      <c r="D28" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="36" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="36" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="36" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="36" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="36" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="36" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="36" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="36" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="36" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="11"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="13">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B3:C8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="B10:C14"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A16:A26"/>
+    <mergeCell ref="B16:C26"/>
     <mergeCell ref="A39:H39"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B28:C38"/>
     <mergeCell ref="A28:A38"/>
-    <mergeCell ref="E28:E38"/>
-    <mergeCell ref="F28:F38"/>
-    <mergeCell ref="G28:G38"/>
-    <mergeCell ref="H28:H38"/>
-    <mergeCell ref="H3:H8"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="H10:H14"/>
-    <mergeCell ref="E16:E26"/>
-    <mergeCell ref="F16:F26"/>
-    <mergeCell ref="G16:G26"/>
-    <mergeCell ref="H16:H26"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="B10:C14"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="E3:E8"/>
-    <mergeCell ref="F3:F8"/>
-    <mergeCell ref="G3:G8"/>
-    <mergeCell ref="A16:A26"/>
-    <mergeCell ref="B3:C8"/>
-    <mergeCell ref="B16:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1499,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E5A6E7-E8E4-4739-BD48-28F29B9F6907}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,313 +1649,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="42" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="27">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="43" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="43" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="27">
         <v>2</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="43" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="43" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="43" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="43" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="13">
         <v>3</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
+      <c r="A16" s="27">
         <v>4</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="43" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="43" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
+      <c r="A20" s="27">
         <v>5</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="43" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="14">
+    <mergeCell ref="B3:D6"/>
+    <mergeCell ref="B8:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D18"/>
+    <mergeCell ref="B20:D21"/>
     <mergeCell ref="A22:I22"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A16:A18"/>
@@ -1828,27 +1967,6 @@
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A19:I19"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="B8:D12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B16:D18"/>
-    <mergeCell ref="B20:D21"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B3:D6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1858,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659C263E-7464-4092-B5AF-94D92D963091}">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:Q2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,47 +1992,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="5"/>
@@ -1926,96 +2044,92 @@
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="39" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="30" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="30" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="B3:E7"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2026,63 +2140,63 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:R2"/>
+      <selection sqref="A1:R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="48"/>
-    <col min="5" max="5" width="6.85546875" style="48" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="48" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="48" customWidth="1"/>
-    <col min="8" max="11" width="15.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="48"/>
+    <col min="1" max="4" width="9.140625" style="17"/>
+    <col min="5" max="5" width="6.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="17" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="17" customWidth="1"/>
+    <col min="8" max="11" width="15.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="A1" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="5"/>
@@ -2094,23 +2208,23 @@
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2120,19 +2234,19 @@
       <c r="R3" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2142,19 +2256,19 @@
       <c r="R4" s="5"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2164,19 +2278,19 @@
       <c r="R5" s="5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2186,19 +2300,19 @@
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2208,19 +2322,19 @@
       <c r="R7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -2230,19 +2344,19 @@
       <c r="R8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -2252,17 +2366,17 @@
       <c r="R9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2272,17 +2386,17 @@
       <c r="R10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2292,28 +2406,24 @@
       <c r="R11" s="5"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="B3:E11"/>
-    <mergeCell ref="H3:H11"/>
-    <mergeCell ref="I3:I11"/>
-    <mergeCell ref="J3:J11"/>
-    <mergeCell ref="K3:K11"/>
     <mergeCell ref="A3:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2325,61 +2435,63 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="43.85546875" customWidth="1"/>
-    <col min="8" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="43.85546875" style="1" customWidth="1"/>
+    <col min="8" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="5"/>
@@ -2391,23 +2503,23 @@
       <c r="R2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -2417,19 +2529,19 @@
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -2439,19 +2551,19 @@
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -2461,19 +2573,19 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -2483,19 +2595,19 @@
       <c r="R6" s="4"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -2505,17 +2617,17 @@
       <c r="R7" s="4"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -2525,17 +2637,17 @@
       <c r="R8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2545,27 +2657,23 @@
       <c r="R9" s="4"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="4">
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B3:F9"/>
-    <mergeCell ref="H3:H9"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="J3:J9"/>
-    <mergeCell ref="K3:K9"/>
     <mergeCell ref="A3:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2574,12 +2682,863 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272BA264-61AF-4A04-981E-9F28565D4036}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="54"/>
+    <col min="2" max="2" width="23.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="54" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" style="54" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="54" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="1.28515625" style="54" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" style="54" customWidth="1"/>
+    <col min="9" max="12" width="15.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="58">
+        <v>2</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="58">
+        <v>3</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="62"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="62"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="58">
+        <v>4</v>
+      </c>
+      <c r="B29" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="62"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="68"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="58">
+        <v>5</v>
+      </c>
+      <c r="B36" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="62"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="68"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="70"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="58">
+        <v>6</v>
+      </c>
+      <c r="B42" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" s="61"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="68"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="69"/>
+      <c r="L47" s="70"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="58">
+        <v>7</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="61"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="65"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B42:C46"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B48:C50"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="B19:C27"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="B29:C34"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B36:C40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B3:C9"/>
+    <mergeCell ref="B11:C17"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2600,167 +3559,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D18740-7CDE-4B48-A055-E1BF57FC5653}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
